--- a/mvp/шопінг меню 2.xlsx
+++ b/mvp/шопінг меню 2.xlsx
@@ -452,7 +452,7 @@
         <v>192500</v>
       </c>
       <c r="C2" t="n">
-        <v>2758.3675</v>
+        <v>2758.3</v>
       </c>
       <c r="D2" t="n">
         <v>89.09999999999999</v>
@@ -506,10 +506,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8882065207047285</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>8.978675645342312</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -544,16 +544,16 @@
         <v>8750</v>
       </c>
       <c r="C6" t="n">
-        <v>43.75</v>
+        <v>43.8</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.586083072687015</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>5.611672278338945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>84.25273282113425</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>22.44668911335578</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>8750</v>
       </c>
       <c r="C8" t="n">
-        <v>55.125</v>
+        <v>55.1</v>
       </c>
       <c r="D8" t="n">
         <v>6.3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.998464671585639</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>7.070707070707071</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>6125</v>
       </c>
       <c r="C9" t="n">
-        <v>214.375</v>
+        <v>214.4</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>7.771807056166375</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>39.28170594837262</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -632,16 +632,16 @@
         <v>1487.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14875</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005392682447135851</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1122334455667789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -654,16 +654,16 @@
         <v>6562.5</v>
       </c>
       <c r="C11" t="n">
-        <v>62.34375</v>
+        <v>62.3</v>
       </c>
       <c r="D11" t="n">
         <v>9.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.260168378578997</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>10.662177328844</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -676,16 +676,16 @@
         <v>6562.5</v>
       </c>
       <c r="C12" t="n">
-        <v>34.125</v>
+        <v>34.1</v>
       </c>
       <c r="D12" t="n">
         <v>5.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.237144796695872</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>5.836139169472503</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/шопінг меню 2.xlsx
+++ b/mvp/шопінг меню 2.xlsx
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192500</v>
+        <v>27500</v>
       </c>
       <c r="C2" t="n">
-        <v>2758.3</v>
+        <v>393.9999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>89.09999999999999</v>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3062.5</v>
+        <v>437.5</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8750</v>
+        <v>1250</v>
       </c>
       <c r="C6" t="n">
-        <v>43.8</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116200</v>
+        <v>16600</v>
       </c>
       <c r="C7" t="n">
-        <v>2324</v>
+        <v>332</v>
       </c>
       <c r="D7" t="n">
         <v>20</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8750</v>
+        <v>1250</v>
       </c>
       <c r="C8" t="n">
-        <v>55.1</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="n">
         <v>6.3</v>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6125</v>
+        <v>875</v>
       </c>
       <c r="C9" t="n">
-        <v>214.4</v>
+        <v>30.6</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1487.5</v>
+        <v>212.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6562.5</v>
+        <v>937.5</v>
       </c>
       <c r="C11" t="n">
-        <v>62.3</v>
+        <v>8.9</v>
       </c>
       <c r="D11" t="n">
         <v>9.5</v>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6562.5</v>
+        <v>937.5</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1</v>
+        <v>4.9</v>
       </c>
       <c r="D12" t="n">
         <v>5.2</v>
